--- a/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
+++ b/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:20:15+08:00</t>
+    <t>2024-10-22T01:35:37+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -426,13 +426,13 @@
 </t>
   </si>
   <si>
-    <t>內嵌的（contained）、行內的Resources</t>
-  </si>
-  <si>
-    <t>這些resource內嵌（contains）的resource不會另外存於任何FHIR伺服器，意即它們無法在任何FHIR伺服器中被找到，也無法有自己獨立的資料異動／交易（transaction）範圍。</t>
-  </si>
-  <si>
-    <t>當內容可以從任何FHIR伺服器找到時，不應該以內嵌（contained）resource的方式呈現，因為一旦失去識別，再次恢復它是非常困難的（並且取決於情境）。內嵌（contained）的resource可在它們的meta資料項目中表述profiles和tag，但不應該有安全標號（security labels）。</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -442,19 +442,23 @@
   </si>
   <si>
     <t>Observation.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>擴充的資料項目</t>
-  </si>
-  <si>
-    <t>可用於表示不屬於此resource基本定義的額外資訊。為了擴充的使用安全和可管理，對擴充的定義和使用有一套嚴格的管理。儘管任何實作者都可以定義一個擴充，但作為擴充定義的一部分，**必須（SHALL）** 滿足一系列要求。</t>
-  </si>
-  <si>
-    <t>任何應用程式、專案或標準使用擴充時，都不應該帶有任何負面的聯想。使用擴充是允許FHIR規範為每個人保留一個核心的簡易性。</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -467,14 +471,14 @@
     <t>Observation.modifierExtension</t>
   </si>
   <si>
-    <t>此擴充的資料項目可能會完全修正或改變其他資料項目的意涵，需特別留意。</t>
-  </si>
-  <si>
-    <t>可以用來表示不屬於此resource的基本定義的額外資訊，並修改包含它所內嵌（contained）的資料項目的理解和/或對包含資料項目之後續使用的理解。通常修飾用的資料項目提供否定或限定的資訊。為了使擴充的使用安全和可管理，對擴充的定義和使用有一套嚴格的管理。雖然任何實作者都可以定義一個擴充，但在定義擴充時 **必須（SHALL）** 滿足一組要求。處理resource的應用程式需要檢查修飾用的擴充資料項目。  
-修飾用的擴充資料項目 **必須沒有（SHALL NOT）** 改變resource或DomainResource上任何資料項目的含義（包括不能改變modifierExtension本身的含義）。</t>
-  </si>
-  <si>
-    <t>修飾用的資料項目擴充允許將不能安全地忽略的擴充，與絕大多數可以安全地忽略的擴充明確區分開來。這樣做有助於促進可互操作性，因為無需禁止實作者使用擴充，想要瞭解更多資訊，請參見[修飾用的資料項目擴充之定義]（http://hl7.org/fhir/R4/extensibility.html#modifierExtension）。</t>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -515,7 +519,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/MedicationRequest-twcore|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/MedicationRequest-twcore|NutritionOrder|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/ServiceRequest-twcore)
 </t>
   </si>
   <si>
@@ -544,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/MedicationDispense-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/MedicationStatement-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Procedure-twcore|Immunization|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/ImagingStudy-twcore)
+    <t xml:space="preserve">Reference(MedicationAdministration|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/MedicationDispense-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/MedicationStatement-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Procedure-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Immunization-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/ImagingStudy-twcore)
 </t>
   </si>
   <si>
@@ -690,17 +694,7 @@
     <t>Observation.category.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -941,7 +935,7 @@
     <t>應填入所綁定值集中的其中一個代碼。</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/vital-signs-tw</t>
   </si>
   <si>
     <t>Observation.code.id</t>
@@ -954,6 +948,9 @@
   </si>
   <si>
     <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>擴充的資料項目</t>
   </si>
   <si>
     <t>Observation.code.coding</t>
@@ -1140,7 +1137,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Practitioner-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Patient-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/PractitionerRole-twcore|CareTeam)
+    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Practitioner-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Patient-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/PractitionerRole-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/CareTeam-twcore)
 </t>
   </si>
   <si>
@@ -1425,9 +1422,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
@@ -1539,7 +1533,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Observation-vitalSigns-twcore|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Observation-vitalSigns-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/QuestionnaireResponse-twcore|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1561,7 +1555,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/DocumentReference-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/ImagingStudy-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Media-twcore|QuestionnaireResponse|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Observation-vitalSigns-twcore|MolecularSequence)
+    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/DocumentReference-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/ImagingStudy-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Media-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/QuestionnaireResponse-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Observation-vitalSigns-twcore|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1624,9 +1618,6 @@
   </si>
   <si>
     <t>代碼指明檢驗檢查的名稱；可參考所綁定值集，但此值集只是針對這個欄位的一個可能值的範例，不預期也不鼓勵使用者一定要使用此值集的代碼。</t>
-  </si>
-  <si>
-    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/vital-signs-tw</t>
   </si>
   <si>
     <t>Observation.component.value[x]</t>
@@ -3031,7 +3022,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3050,16 +3041,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3109,7 +3100,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3121,7 +3112,7 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -3133,7 +3124,7 @@
         <v>20</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>20</v>
@@ -3144,14 +3135,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3170,19 +3161,19 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -3231,7 +3222,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3243,7 +3234,7 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -3255,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>20</v>
@@ -3266,10 +3257,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3292,17 +3283,17 @@
         <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -3351,7 +3342,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3366,19 +3357,19 @@
         <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>20</v>
@@ -3386,14 +3377,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3412,17 +3403,17 @@
         <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3471,7 +3462,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3486,16 +3477,16 @@
         <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>20</v>
@@ -3506,14 +3497,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3532,16 +3523,16 @@
         <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3591,7 +3582,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3606,16 +3597,16 @@
         <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>20</v>
@@ -3626,10 +3617,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3655,16 +3646,16 @@
         <v>112</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3689,13 +3680,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3713,7 +3704,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>92</v>
@@ -3728,19 +3719,19 @@
         <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>20</v>
@@ -3748,10 +3739,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3774,19 +3765,19 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3814,26 +3805,26 @@
         <v>117</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3857,10 +3848,10 @@
         <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>20</v>
@@ -3868,13 +3859,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>20</v>
@@ -3896,19 +3887,19 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3936,10 +3927,10 @@
         <v>117</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3957,7 +3948,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3966,7 +3957,7 @@
         <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>104</v>
@@ -3978,10 +3969,10 @@
         <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>20</v>
@@ -3992,10 +3983,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4018,13 +4009,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4075,7 +4066,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4099,7 +4090,7 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -4110,14 +4101,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4136,16 +4127,16 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="N18" t="s" s="2">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4183,19 +4174,19 @@
         <v>20</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4207,7 +4198,7 @@
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>20</v>
@@ -4219,7 +4210,7 @@
         <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>20</v>
@@ -4230,10 +4221,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4256,19 +4247,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -4317,7 +4308,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4338,10 +4329,10 @@
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>20</v>
@@ -4352,10 +4343,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4378,13 +4369,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4435,7 +4426,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4459,7 +4450,7 @@
         <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>20</v>
@@ -4470,14 +4461,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4496,16 +4487,16 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4543,19 +4534,19 @@
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4567,7 +4558,7 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
@@ -4579,7 +4570,7 @@
         <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
@@ -4590,10 +4581,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4619,23 +4610,23 @@
         <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>20</v>
@@ -4677,7 +4668,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4698,10 +4689,10 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>20</v>
@@ -4712,10 +4703,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4738,16 +4729,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4797,7 +4788,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4818,10 +4809,10 @@
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>
@@ -4832,10 +4823,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4861,21 +4852,21 @@
         <v>112</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>20</v>
@@ -4917,7 +4908,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4938,10 +4929,10 @@
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -4952,10 +4943,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4978,17 +4969,17 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -5037,7 +5028,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5058,10 +5049,10 @@
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -5072,10 +5063,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5098,19 +5089,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -5159,7 +5150,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5180,10 +5171,10 @@
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -5194,10 +5185,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5220,19 +5211,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5281,7 +5272,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5302,10 +5293,10 @@
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -5316,14 +5307,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5342,19 +5333,19 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5379,14 +5370,14 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
       </c>
@@ -5403,7 +5394,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>92</v>
@@ -5412,7 +5403,7 @@
         <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>104</v>
@@ -5424,10 +5415,10 @@
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
@@ -5438,10 +5429,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5464,13 +5455,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5521,7 +5512,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5545,7 +5536,7 @@
         <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -5556,10 +5547,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5582,13 +5573,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5627,19 +5618,19 @@
         <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5651,7 +5642,7 @@
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
@@ -5674,10 +5665,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5700,19 +5691,19 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5761,7 +5752,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5770,7 +5761,7 @@
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>104</v>
@@ -5782,10 +5773,10 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -5796,10 +5787,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5822,19 +5813,19 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5883,7 +5874,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5904,10 +5895,10 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5918,10 +5909,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5944,19 +5935,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -6005,7 +5996,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6020,19 +6011,19 @@
         <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>20</v>
@@ -6040,10 +6031,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6066,16 +6057,16 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6125,7 +6116,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6146,13 +6137,13 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AN34" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="AO34" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>20</v>
@@ -6160,14 +6151,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6186,19 +6177,19 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -6247,7 +6238,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6262,19 +6253,19 @@
         <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>20</v>
@@ -6282,14 +6273,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6308,19 +6299,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6369,7 +6360,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6378,25 +6369,25 @@
         <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>20</v>
@@ -6404,10 +6395,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6430,16 +6421,16 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6489,7 +6480,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6510,13 +6501,13 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>20</v>
@@ -6524,10 +6515,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6550,17 +6541,17 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6609,7 +6600,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6624,19 +6615,19 @@
         <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>20</v>
@@ -6644,10 +6635,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6670,19 +6661,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6707,14 +6698,14 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6731,7 +6722,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6740,7 +6731,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6749,27 +6740,27 @@
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6792,19 +6783,19 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6829,14 +6820,14 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6853,7 +6844,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6862,7 +6853,7 @@
         <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>104</v>
@@ -6874,10 +6865,10 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6888,14 +6879,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6914,19 +6905,19 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6951,14 +6942,14 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6975,7 +6966,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6984,7 +6975,7 @@
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>104</v>
@@ -6996,10 +6987,10 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -7010,10 +7001,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7036,19 +7027,19 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -7097,7 +7088,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7118,10 +7109,10 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -7132,10 +7123,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7158,16 +7149,16 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7193,14 +7184,14 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
       </c>
@@ -7217,7 +7208,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7226,7 +7217,7 @@
         <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>104</v>
@@ -7238,10 +7229,10 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7252,10 +7243,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7278,19 +7269,19 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7315,14 +7306,14 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
       </c>
@@ -7339,7 +7330,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7348,7 +7339,7 @@
         <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>104</v>
@@ -7360,10 +7351,10 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7374,10 +7365,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7400,16 +7391,16 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7459,7 +7450,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7477,27 +7468,27 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP45" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7520,16 +7511,16 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7579,7 +7570,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7597,27 +7588,27 @@
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>435</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7640,19 +7631,19 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7701,7 +7692,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7713,19 +7704,19 @@
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7736,10 +7727,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7762,13 +7753,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7819,7 +7810,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7843,7 +7834,7 @@
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7854,14 +7845,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7880,16 +7871,16 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7939,7 +7930,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7951,7 +7942,7 @@
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
@@ -7963,7 +7954,7 @@
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -7974,14 +7965,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8000,19 +7991,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>451</v>
+        <v>148</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -8061,7 +8052,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8073,7 +8064,7 @@
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -8096,10 +8087,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8122,13 +8113,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8179,7 +8170,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8188,7 +8179,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -8200,10 +8191,10 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -8214,10 +8205,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8240,13 +8231,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8297,7 +8288,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8306,7 +8297,7 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>104</v>
@@ -8318,10 +8309,10 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8332,10 +8323,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8358,19 +8349,19 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8398,10 +8389,10 @@
         <v>117</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -8419,7 +8410,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8428,7 +8419,7 @@
         <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>104</v>
@@ -8440,10 +8431,10 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8454,10 +8445,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8480,19 +8471,19 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O54" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8517,14 +8508,14 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>476</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8541,7 +8532,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8550,7 +8541,7 @@
         <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>104</v>
@@ -8562,10 +8553,10 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8576,10 +8567,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8602,17 +8593,17 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -8661,7 +8652,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8685,7 +8676,7 @@
         <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8696,10 +8687,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8722,13 +8713,13 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8779,7 +8770,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8800,10 +8791,10 @@
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
@@ -8814,10 +8805,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8840,16 +8831,16 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8899,7 +8890,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8920,10 +8911,10 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -8934,10 +8925,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8960,16 +8951,16 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9019,7 +9010,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9040,10 +9031,10 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
@@ -9054,10 +9045,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9080,19 +9071,19 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9141,7 +9132,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9153,19 +9144,19 @@
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -9176,10 +9167,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9202,13 +9193,13 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9259,7 +9250,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9283,7 +9274,7 @@
         <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
@@ -9294,14 +9285,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9320,16 +9311,16 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="N61" t="s" s="2">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9379,7 +9370,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9391,7 +9382,7 @@
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
@@ -9403,7 +9394,7 @@
         <v>20</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
@@ -9414,14 +9405,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9440,19 +9431,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="N62" t="s" s="2">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>451</v>
+        <v>148</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9501,7 +9492,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9513,7 +9504,7 @@
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
@@ -9536,10 +9527,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9562,19 +9553,19 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>514</v>
-      </c>
       <c r="O63" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9599,13 +9590,13 @@
         <v>20</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>181</v>
+        <v>294</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>516</v>
+        <v>296</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>20</v>
@@ -9623,7 +9614,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>92</v>
@@ -9632,7 +9623,7 @@
         <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>104</v>
@@ -9644,10 +9635,10 @@
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
@@ -9658,10 +9649,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9684,19 +9675,19 @@
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O64" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9721,13 +9712,13 @@
         <v>20</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
@@ -9745,7 +9736,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9754,7 +9745,7 @@
         <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>104</v>
@@ -9763,27 +9754,27 @@
         <v>20</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9806,19 +9797,19 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="N65" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9843,13 +9834,13 @@
         <v>20</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>20</v>
@@ -9867,7 +9858,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9876,7 +9867,7 @@
         <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>104</v>
@@ -9888,10 +9879,10 @@
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
@@ -9902,14 +9893,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9928,19 +9919,19 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -9965,13 +9956,13 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -9989,7 +9980,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9998,7 +9989,7 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>104</v>
@@ -10010,10 +10001,10 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>
@@ -10024,10 +10015,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10053,16 +10044,16 @@
         <v>82</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="N67" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O67" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -10111,7 +10102,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10132,10 +10123,10 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>

--- a/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
+++ b/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TWLTC Observation Vital Signs</t>
+    <t>長期照顧－生命體徵</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T01:35:37+08:00</t>
+    <t>2024-10-23T00:37:08+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>長照機構住民的生命徵象資料</t>
+    <t>此 Profile 說明本 IG 如何進一步定義 FHIR 的 Observation Resource，以呈現長照機構住民的生命體徵資料。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -920,7 +920,7 @@
 </t>
   </si>
   <si>
-    <t>量測的生命徵象項目</t>
+    <t>量測的生命體徵項目</t>
   </si>
   <si>
     <t>可以透過正式參照一個專門術語或本體論來定義一個概念，或者也可以文字表述此概念。</t>
@@ -985,7 +985,7 @@
 </t>
   </si>
   <si>
-    <t>此生命徵象資料的量測對象</t>
+    <t>此生命體徵資料的量測對象</t>
   </si>
   <si>
     <t>此檢驗檢查是關於一位病人、一群病人、地點、或設備。如果檢驗檢查的實際焦點與對象（或其樣本、其部分或其區域）不同，則焦點資料項目或代碼本身會具體說明檢驗檢查的實際焦點。</t>
@@ -1169,7 +1169,7 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>生命徵象量測值</t>
+    <t>生命體徵量測值</t>
   </si>
   <si>
     <t>如果此資訊有一個簡單的值，則將其作為此項檢驗檢查的結果。</t>

--- a/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
+++ b/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
+++ b/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -519,7 +519,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/MedicationRequest-twcore|NutritionOrder|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/ServiceRequest-twcore)
+    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/CarePlan-twcore|DeviceRequest|ImmunizationRecommendation|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/MedicationRequest-twcore|NutritionOrder|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/ServiceRequest-twcore)
 </t>
   </si>
   <si>
@@ -2004,15 +2004,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.29296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2023,28 +2023,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="94.55859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.54296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.9296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.02734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8671875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="53.97265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="47.75" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="93.1640625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.8203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
+++ b/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
+++ b/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
+++ b/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2004,15 +2004,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.0625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.6875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2023,28 +2023,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.9296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.02734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8671875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="81.06640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.3359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="47.75" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="46.26953125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="93.1640625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="33.8203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
+++ b/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
+++ b/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
+++ b/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
+++ b/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
+++ b/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
+++ b/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
+++ b/docs/StructureDefinition-LTCObservationVitalSigns.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
